--- a/docs/overzicht eigenschappen aminozuren.xlsx
+++ b/docs/overzicht eigenschappen aminozuren.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/s_a_meulders_student_tue_nl/Documents/Desktop/cbl_programming/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/s_a_meulders_student_tue_nl/Documents/Desktop/group-4/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="228" documentId="11_F25DC773A252ABDACC10487BF91F70425BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19732D89-30D7-4800-959E-33EDA75998C1}"/>
+  <xr:revisionPtr revIDLastSave="255" documentId="11_F25DC773A252ABDACC10487BF91F70425BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13136C48-A624-4489-AA6A-27307E3E0402}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="170">
   <si>
     <t>charge</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>n_S</t>
-  </si>
-  <si>
-    <t>n_P</t>
   </si>
   <si>
     <t>molecular_weight</t>
@@ -619,10 +616,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -888,15 +881,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -948,8 +941,8 @@
       <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>17</v>
+      <c r="S1" t="s">
+        <v>37</v>
       </c>
       <c r="T1" t="s">
         <v>38</v>
@@ -972,13 +965,10 @@
       <c r="Z1" t="s">
         <v>44</v>
       </c>
-      <c r="AA1" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1014,25 +1004,25 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>89.09</v>
       </c>
       <c r="N2">
-        <v>89.09</v>
+        <v>2</v>
       </c>
       <c r="O2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P2">
-        <v>3</v>
+        <v>63.3</v>
       </c>
       <c r="Q2">
-        <v>63.3</v>
+        <v>3</v>
       </c>
       <c r="R2">
-        <v>3</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
+        <v>167</v>
       </c>
       <c r="T2" t="s">
         <v>168</v>
@@ -1041,13 +1031,13 @@
         <v>169</v>
       </c>
       <c r="V2" t="s">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="W2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X2" t="s">
         <v>46</v>
-      </c>
-      <c r="X2" t="s">
-        <v>80</v>
       </c>
       <c r="Y2" t="s">
         <v>47</v>
@@ -1055,13 +1045,10 @@
       <c r="Z2" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" t="s">
-        <v>49</v>
-      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1097,54 +1084,51 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>121.16</v>
       </c>
       <c r="N3">
-        <v>121.16</v>
+        <v>3</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P3">
-        <v>4</v>
+        <v>64.3</v>
       </c>
       <c r="Q3">
-        <v>64.3</v>
+        <v>2.5</v>
       </c>
       <c r="R3">
-        <v>2.5</v>
-      </c>
-      <c r="S3">
-        <v>2</v>
-      </c>
-      <c r="T3" t="s">
-        <v>50</v>
+        <v>2</v>
+      </c>
+      <c r="S3" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="W3" t="s">
+        <v>58</v>
       </c>
       <c r="X3" t="s">
         <v>59</v>
       </c>
-      <c r="Y3" t="s">
-        <v>60</v>
+      <c r="Y3" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1180,54 +1164,51 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>133.1</v>
       </c>
       <c r="N4">
-        <v>133.1</v>
+        <v>3</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P4">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="Q4">
-        <v>101</v>
+        <v>2.8</v>
       </c>
       <c r="R4">
-        <v>2.8</v>
-      </c>
-      <c r="S4">
-        <v>3</v>
-      </c>
-      <c r="T4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="T4" t="s">
         <v>69</v>
       </c>
-      <c r="U4" t="s">
-        <v>70</v>
+      <c r="U4" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="X4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="X4" t="s">
         <v>77</v>
       </c>
       <c r="Y4" t="s">
         <v>78</v>
       </c>
       <c r="Z4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1263,54 +1244,51 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>147.13</v>
       </c>
       <c r="N5">
-        <v>147.13</v>
+        <v>3</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P5">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="Q5">
-        <v>101</v>
+        <v>3.7</v>
       </c>
       <c r="R5">
-        <v>3.7</v>
-      </c>
-      <c r="S5">
         <v>4</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="S5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="T5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U5" t="s">
         <v>82</v>
       </c>
-      <c r="U5" t="s">
-        <v>61</v>
-      </c>
       <c r="V5" t="s">
-        <v>83</v>
-      </c>
-      <c r="W5" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="X5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="Y5" s="3" t="s">
-        <v>88</v>
+      <c r="Y5" t="s">
+        <v>89</v>
       </c>
       <c r="Z5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1346,54 +1324,51 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>165.19</v>
       </c>
       <c r="N6">
-        <v>165.19</v>
+        <v>2</v>
       </c>
       <c r="O6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P6">
-        <v>3</v>
+        <v>63.3</v>
       </c>
       <c r="Q6">
-        <v>63.3</v>
+        <v>1.5</v>
       </c>
       <c r="R6">
-        <v>1.5</v>
-      </c>
-      <c r="S6">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="S6" t="s">
+        <v>92</v>
       </c>
       <c r="T6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="U6" t="s">
-        <v>95</v>
-      </c>
-      <c r="V6" t="s">
-        <v>98</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>67</v>
+        <v>97</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="W6" t="s">
+        <v>99</v>
       </c>
       <c r="X6" t="s">
         <v>100</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Y6" s="3" t="s">
         <v>101</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1429,54 +1404,51 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>75.069999999999993</v>
       </c>
       <c r="N7">
-        <v>75.069999999999993</v>
+        <v>2</v>
       </c>
       <c r="O7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P7">
-        <v>3</v>
+        <v>63.3</v>
       </c>
       <c r="Q7">
-        <v>63.3</v>
+        <v>3.2</v>
       </c>
       <c r="R7">
-        <v>3.2</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="U7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="V7" t="s">
         <v>104</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W7" s="3" t="s">
         <v>105</v>
       </c>
       <c r="X7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y7" t="s">
         <v>106</v>
       </c>
-      <c r="Y7" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z7" t="s">
+      <c r="Z7" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AA7" s="3" t="s">
-        <v>108</v>
-      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1512,54 +1484,51 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>155.15</v>
       </c>
       <c r="N8">
-        <v>155.15</v>
+        <v>3</v>
       </c>
       <c r="O8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P8">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="Q8">
-        <v>92</v>
+        <v>3.2</v>
       </c>
       <c r="R8">
-        <v>3.2</v>
-      </c>
-      <c r="S8">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>110</v>
+      <c r="U8" t="s">
+        <v>85</v>
       </c>
       <c r="V8" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="W8" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="X8" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y8" t="s">
         <v>91</v>
       </c>
-      <c r="Y8" t="s">
-        <v>112</v>
-      </c>
       <c r="Z8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>390</v>
@@ -1595,54 +1564,51 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>131.16999999999999</v>
       </c>
       <c r="N9">
-        <v>131.16999999999999</v>
+        <v>2</v>
       </c>
       <c r="O9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>63.3</v>
       </c>
       <c r="Q9">
-        <v>63.3</v>
+        <v>1.7</v>
       </c>
       <c r="R9">
-        <v>1.7</v>
-      </c>
-      <c r="S9">
-        <v>3</v>
-      </c>
-      <c r="T9" t="s">
-        <v>113</v>
-      </c>
-      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" t="s">
+        <v>112</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="U9" t="s">
+        <v>61</v>
+      </c>
+      <c r="V9" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
+        <v>61</v>
+      </c>
+      <c r="X9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="X9" t="s">
-        <v>62</v>
-      </c>
       <c r="Y9" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1678,54 +1644,51 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>146.19</v>
       </c>
       <c r="N10">
-        <v>146.19</v>
+        <v>3</v>
       </c>
       <c r="O10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>4</v>
+        <v>89.3</v>
       </c>
       <c r="Q10">
-        <v>89.3</v>
+        <v>3</v>
       </c>
       <c r="R10">
-        <v>3</v>
-      </c>
-      <c r="S10">
         <v>5</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="S10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="T10" t="s">
+        <v>96</v>
+      </c>
+      <c r="U10" t="s">
+        <v>96</v>
+      </c>
+      <c r="V10" t="s">
+        <v>95</v>
+      </c>
+      <c r="W10" t="s">
         <v>121</v>
       </c>
-      <c r="U10" t="s">
-        <v>97</v>
-      </c>
-      <c r="V10" t="s">
-        <v>97</v>
-      </c>
-      <c r="W10" t="s">
-        <v>96</v>
-      </c>
       <c r="X10" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y10" t="s">
         <v>122</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>70</v>
       </c>
       <c r="Z10" t="s">
         <v>123</v>
       </c>
-      <c r="AA10" t="s">
-        <v>124</v>
-      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>390</v>
@@ -1761,54 +1724,51 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>131.16999999999999</v>
       </c>
       <c r="N11">
-        <v>131.16999999999999</v>
+        <v>2</v>
       </c>
       <c r="O11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>63.3</v>
       </c>
       <c r="Q11">
-        <v>63.3</v>
+        <v>1.5</v>
       </c>
       <c r="R11">
-        <v>1.5</v>
-      </c>
-      <c r="S11">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="S11" t="s">
+        <v>125</v>
       </c>
       <c r="T11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="U11" t="s">
-        <v>128</v>
-      </c>
-      <c r="V11" t="s">
-        <v>99</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="X11" t="s">
+        <v>98</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="W11" t="s">
+        <v>129</v>
+      </c>
+      <c r="X11" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="Y11" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>72</v>
+      <c r="Y11" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1844,54 +1804,51 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>149.21</v>
       </c>
       <c r="N12">
-        <v>149.21</v>
+        <v>2</v>
       </c>
       <c r="O12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P12">
+        <v>88.6</v>
+      </c>
+      <c r="Q12">
+        <v>1.9</v>
+      </c>
+      <c r="R12">
         <v>4</v>
       </c>
-      <c r="Q12">
-        <v>88.6</v>
-      </c>
-      <c r="R12">
-        <v>1.9</v>
-      </c>
-      <c r="S12">
-        <v>4</v>
-      </c>
-      <c r="T12" t="s">
+      <c r="S12" t="s">
+        <v>131</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="U12" t="s">
+        <v>115</v>
+      </c>
+      <c r="V12" t="s">
+        <v>58</v>
+      </c>
+      <c r="W12" t="s">
         <v>132</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="V12" t="s">
-        <v>116</v>
-      </c>
-      <c r="W12" t="s">
-        <v>59</v>
-      </c>
       <c r="X12" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y12" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="Y12" t="s">
-        <v>83</v>
-      </c>
       <c r="Z12" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA12" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1927,54 +1884,51 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>132.12</v>
       </c>
       <c r="N13">
-        <v>132.12</v>
+        <v>3</v>
       </c>
       <c r="O13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P13">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="Q13">
-        <v>106</v>
+        <v>3.4</v>
       </c>
       <c r="R13">
-        <v>3.4</v>
-      </c>
-      <c r="S13">
-        <v>3</v>
-      </c>
-      <c r="T13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="T13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="V13" t="s">
         <v>137</v>
       </c>
-      <c r="U13" t="s">
-        <v>59</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="W13" t="s">
+      <c r="W13" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="X13" s="3" t="s">
+      <c r="X13" t="s">
         <v>139</v>
       </c>
       <c r="Y13" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA13" s="3" t="s">
-        <v>119</v>
+        <v>141</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2010,54 +1964,51 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>115.13</v>
       </c>
       <c r="N14">
-        <v>115.13</v>
+        <v>2</v>
       </c>
       <c r="O14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P14">
-        <v>3</v>
+        <v>49.3</v>
       </c>
       <c r="Q14">
-        <v>49.3</v>
+        <v>2.5</v>
       </c>
       <c r="R14">
-        <v>2.5</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="T14" t="s">
-        <v>130</v>
+        <v>1</v>
+      </c>
+      <c r="S14" t="s">
+        <v>129</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="V14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="V14" t="s">
+        <v>142</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="W14" t="s">
-        <v>143</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>145</v>
+      <c r="Z14" t="s">
+        <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2093,54 +2044,51 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>146.13999999999999</v>
       </c>
       <c r="N15">
-        <v>146.13999999999999</v>
+        <v>3</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P15">
+        <v>106</v>
+      </c>
+      <c r="Q15">
+        <v>3.1</v>
+      </c>
+      <c r="R15">
         <v>4</v>
       </c>
-      <c r="Q15">
-        <v>106</v>
-      </c>
-      <c r="R15">
-        <v>3.1</v>
-      </c>
-      <c r="S15">
-        <v>4</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>135</v>
+      <c r="S15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="T15" t="s">
+        <v>145</v>
       </c>
       <c r="U15" t="s">
+        <v>49</v>
+      </c>
+      <c r="V15" t="s">
         <v>146</v>
       </c>
-      <c r="V15" t="s">
-        <v>50</v>
-      </c>
       <c r="W15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X15" t="s">
         <v>147</v>
       </c>
-      <c r="X15" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>148</v>
+      <c r="Y15" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="Z15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2176,37 +2124,37 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>174.2</v>
       </c>
       <c r="N16">
-        <v>174.2</v>
+        <v>4</v>
       </c>
       <c r="O16">
         <v>4</v>
       </c>
       <c r="P16">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="Q16">
-        <v>128</v>
+        <v>4.2</v>
       </c>
       <c r="R16">
-        <v>4.2</v>
-      </c>
-      <c r="S16">
         <v>5</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="S16" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="T16" t="s">
+        <v>126</v>
+      </c>
+      <c r="U16" t="s">
+        <v>113</v>
+      </c>
+      <c r="V16" t="s">
+        <v>112</v>
+      </c>
+      <c r="W16" t="s">
         <v>149</v>
-      </c>
-      <c r="U16" t="s">
-        <v>127</v>
-      </c>
-      <c r="V16" t="s">
-        <v>114</v>
-      </c>
-      <c r="W16" t="s">
-        <v>113</v>
       </c>
       <c r="X16" t="s">
         <v>150</v>
@@ -2215,15 +2163,12 @@
         <v>151</v>
       </c>
       <c r="Z16" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2259,54 +2204,51 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>105.09</v>
       </c>
       <c r="N17">
-        <v>105.09</v>
+        <v>3</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P17">
-        <v>4</v>
+        <v>83.6</v>
       </c>
       <c r="Q17">
-        <v>83.6</v>
+        <v>3.1</v>
       </c>
       <c r="R17">
-        <v>3.1</v>
-      </c>
-      <c r="S17">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="T17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="U17" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="V17" s="3" t="s">
-        <v>154</v>
+        <v>55</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z17" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>111</v>
+        <v>53</v>
+      </c>
+      <c r="X17" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2342,54 +2284,51 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>119.12</v>
       </c>
       <c r="N18">
-        <v>119.12</v>
+        <v>3</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P18">
-        <v>4</v>
+        <v>83.6</v>
       </c>
       <c r="Q18">
-        <v>83.6</v>
+        <v>2.9</v>
       </c>
       <c r="R18">
-        <v>2.9</v>
-      </c>
-      <c r="S18">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="T18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="V18" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="W18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y18" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>85</v>
+      <c r="Z18" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>290</v>
@@ -2425,54 +2364,51 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>117.15</v>
       </c>
       <c r="N19">
-        <v>117.15</v>
+        <v>2</v>
       </c>
       <c r="O19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P19">
-        <v>3</v>
+        <v>63.3</v>
       </c>
       <c r="Q19">
-        <v>63.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="R19">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="S19">
-        <v>2</v>
-      </c>
-      <c r="T19" t="s">
+        <v>2</v>
+      </c>
+      <c r="S19" t="s">
+        <v>157</v>
+      </c>
+      <c r="T19" s="3" t="s">
         <v>158</v>
       </c>
       <c r="U19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="V19" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="V19" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="W19" s="3" t="s">
+      <c r="W19" t="s">
+        <v>129</v>
+      </c>
+      <c r="X19" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="X19" t="s">
-        <v>130</v>
-      </c>
       <c r="Y19" s="3" t="s">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="Z19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA19" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2508,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>204.22</v>
       </c>
       <c r="N20">
-        <v>204.22</v>
+        <v>3</v>
       </c>
       <c r="O20">
         <v>3</v>
       </c>
       <c r="P20">
-        <v>3</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="Q20">
-        <v>79.099999999999994</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="S20">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="S20" t="s">
+        <v>161</v>
       </c>
       <c r="T20" t="s">
         <v>162</v>
@@ -2535,27 +2471,24 @@
         <v>163</v>
       </c>
       <c r="V20" t="s">
+        <v>140</v>
+      </c>
+      <c r="W20" t="s">
+        <v>140</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y20" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="W20" t="s">
-        <v>141</v>
-      </c>
-      <c r="X20" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="Z20" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>166</v>
-      </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2591,52 +2524,49 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>181.19</v>
       </c>
       <c r="N21">
-        <v>181.19</v>
+        <v>3</v>
       </c>
       <c r="O21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P21">
-        <v>4</v>
+        <v>83.6</v>
       </c>
       <c r="Q21">
-        <v>83.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="R21">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="S21">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="S21" t="s">
+        <v>94</v>
       </c>
       <c r="T21" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="U21" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="V21" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="W21" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="X21" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA21" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="T22" s="3"/>
     </row>
   </sheetData>
